--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussn\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hussn\Downloads\group 1\HKZip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0CEFE-E3B6-4886-A2F3-00B70732FDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2BC6AA-CA63-4E86-B188-3CF284027F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extensive" sheetId="2" r:id="rId1"/>
     <sheet name="Focused" sheetId="1" r:id="rId2"/>
+    <sheet name="Strict" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>High</t>
   </si>
@@ -868,8 +869,10 @@
         <c:axId val="1649007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="17"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -927,13 +930,84 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1649012576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -942,37 +1016,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1767,8 +1810,10 @@
         <c:axId val="1649007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="17"/>
+          <c:min val="0"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:title>
           <c:tx>
@@ -1826,13 +1871,84 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1649012576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1872,6 +1988,931 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Strict</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Evaluation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Strict!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Strict!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Without_RAG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Synth_RAG_Focused</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Synth_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Training_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Training_RAG_Focused</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Strict!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DE8-4295-83B2-0CB3A6550981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Strict!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Strict!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Without_RAG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Synth_RAG_Focused</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Synth_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Training_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Training_RAG_Focused</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Strict!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DE8-4295-83B2-0CB3A6550981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Strict!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Strict!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Without_RAG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Synth_RAG_Focused</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Synth_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Training_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Training_RAG_Focused</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Strict!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DE8-4295-83B2-0CB3A6550981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Strict!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Strict!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Without_RAG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Synth_RAG_Focused</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Synth_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Training_RAG_Extensive</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Training_RAG_Focused</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Strict!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0DE8-4295-83B2-0CB3A6550981}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1649012576"/>
+        <c:axId val="1649007296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1649012576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649007296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1649007296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="17"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Correct</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1649012576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1996,6 +3037,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
@@ -3044,20 +4125,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>650421</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5441</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3092,15 +4697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>24492</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
+      <xdr:rowOff>157842</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3112,6 +4717,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8163</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA3A497-61E3-4C9B-9E02-071C0831A2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3394,7 +5042,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3511,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3623,4 +5271,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87AB586-C4DA-414B-B310-CA170832597C}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>